--- a/Practica_2/BA/BA_Estudio/Estudio_Parametrico/BA_Estudio_Parametros.xlsx
+++ b/Practica_2/BA/BA_Estudio/Estudio_Parametrico/BA_Estudio_Parametros.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\EUE\Practica_2\BA\BA_Estudio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\EUE\Practica_2\BA\BA_Estudio\Estudio_Parametrico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABABE18-76BA-4263-9718-D9F7FD0A38A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4569E37-6D39-45FB-AF51-C145BA8D42F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="0" windowWidth="21600" windowHeight="11835" xr2:uid="{5C4F7E80-8C79-4120-8B9D-E7CA74F5DB21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C4F7E80-8C79-4120-8B9D-E7CA74F5DB21}"/>
   </bookViews>
   <sheets>
     <sheet name="Propiedades" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
   <si>
     <t>2D_Shell</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>I  [t = 2,5 mm]</t>
+  </si>
+  <si>
+    <t>I  [t = 3 mm]</t>
   </si>
 </sst>
 </file>
@@ -209,7 +212,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,8 +240,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +302,11 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -443,7 +458,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -454,8 +469,9 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -471,9 +487,6 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -519,6 +532,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -553,7 +572,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Énfasis2" xfId="3" builtinId="34"/>
     <cellStyle name="20% - Énfasis3" xfId="4" builtinId="38"/>
@@ -561,6 +580,7 @@
     <cellStyle name="20% - Énfasis5" xfId="6" builtinId="46"/>
     <cellStyle name="20% - Énfasis6" xfId="7" builtinId="50"/>
     <cellStyle name="40% - Énfasis1" xfId="2" builtinId="31"/>
+    <cellStyle name="Bueno" xfId="10" builtinId="26"/>
     <cellStyle name="Incorrecto" xfId="9" builtinId="27"/>
     <cellStyle name="Millares" xfId="8" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37681EE4-180F-4F65-911D-27C4AC2AD661}">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,99 +913,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="33" t="s">
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="31" t="s">
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
       <c r="U1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="20" t="s">
         <v>36</v>
       </c>
       <c r="U2" t="s">
@@ -996,13 +1016,13 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="2">
@@ -1024,7 +1044,7 @@
         <f t="shared" ref="I3:I10" si="0">-(F3+H3)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>43</v>
       </c>
       <c r="K3">
@@ -1034,7 +1054,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M11" si="1">-(F3+L3)/2</f>
+        <f t="shared" ref="M3:M10" si="1">-(F3+L3)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
       <c r="N3" s="3">
@@ -1047,18 +1067,18 @@
         <v>104000000</v>
       </c>
       <c r="Q3" s="2">
-        <v>414000000</v>
+        <v>496000000</v>
       </c>
       <c r="R3" s="2">
         <v>21000000</v>
       </c>
       <c r="S3" s="3">
         <f xml:space="preserve"> D3/( MAX(P3:R3)*1.1*1.2*1.1*1.1 ) - 1</f>
-        <v>-0.32248584781822298</v>
+        <v>-0.43449423588053293</v>
       </c>
       <c r="T3" s="3">
-        <f t="shared" ref="T3:T11" si="2" xml:space="preserve"> E3/( MAX(P3:R3)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>-0.30397519330325651</v>
+        <f t="shared" ref="T3:T10" si="2" xml:space="preserve"> E3/( MAX(P3:R3)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>-0.41904381053941175</v>
       </c>
       <c r="U3" t="s">
         <v>2</v>
@@ -1071,13 +1091,13 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="26">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="2">
@@ -1099,7 +1119,7 @@
         <f t="shared" si="0"/>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>43</v>
       </c>
       <c r="K4">
@@ -1122,18 +1142,18 @@
         <v>109000000</v>
       </c>
       <c r="Q4" s="2">
-        <v>437000000</v>
+        <v>523000000</v>
       </c>
       <c r="R4" s="2">
         <v>22100000</v>
       </c>
       <c r="S4" s="3">
         <f>D4/(MAX(P4:R4)*1.1*1.2*1.1*1.1)-1</f>
-        <v>0.43271319775281802</v>
+        <v>0.19712364707070984</v>
       </c>
       <c r="T4" s="3">
         <f t="shared" si="2"/>
-        <v>0.47512150840630141</v>
+        <v>0.23255850702400305</v>
       </c>
       <c r="U4" t="s">
         <v>5</v>
@@ -1146,13 +1166,13 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="26">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="2">
@@ -1174,7 +1194,7 @@
         <f t="shared" si="0"/>
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>43</v>
       </c>
       <c r="K5">
@@ -1197,28 +1217,28 @@
         <v>86700000</v>
       </c>
       <c r="Q5" s="2">
-        <v>365000000</v>
+        <v>437000000</v>
       </c>
       <c r="R5" s="2">
         <v>26500000</v>
       </c>
       <c r="S5" s="3">
-        <f t="shared" ref="S5:S11" si="3" xml:space="preserve"> D5/( MAX(P5:R5)*1.1*1.2*1.1*1.1 ) - 1</f>
-        <v>-0.23153189314176537</v>
+        <f t="shared" ref="S5:S10" si="3" xml:space="preserve"> D5/( MAX(P5:R5)*1.1*1.2*1.1*1.1 ) - 1</f>
+        <v>-0.35814448740673754</v>
       </c>
       <c r="T5" s="3">
         <f t="shared" si="2"/>
-        <v>-0.21053624665081716</v>
+        <v>-0.34060807786624303</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="26">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="2">
@@ -1241,7 +1261,7 @@
         <f t="shared" si="0"/>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>43</v>
       </c>
       <c r="K6">
@@ -1264,28 +1284,28 @@
         <v>102000000</v>
       </c>
       <c r="Q6" s="2">
-        <v>402000000</v>
+        <v>437000000</v>
       </c>
       <c r="R6" s="2">
         <v>20400000</v>
       </c>
       <c r="S6" s="3">
         <f t="shared" si="3"/>
-        <v>-0.30226154476802092</v>
+        <v>-0.35814448740673754</v>
       </c>
       <c r="T6" s="3">
         <f t="shared" si="2"/>
-        <v>-0.28319833340186129</v>
+        <v>-0.34060807786624303</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="26">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="2">
@@ -1308,7 +1328,7 @@
         <f t="shared" si="0"/>
         <v>-1.0749999999999999E-2</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>43</v>
       </c>
       <c r="K7">
@@ -1331,28 +1351,28 @@
         <v>50</v>
       </c>
       <c r="Q7" s="2">
-        <v>414000000</v>
+        <v>483000000</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>50</v>
       </c>
       <c r="S7" s="3">
         <f t="shared" si="3"/>
-        <v>-0.32248584781822298</v>
+        <v>-0.41927358384419122</v>
       </c>
       <c r="T7" s="3">
         <f t="shared" si="2"/>
-        <v>-0.30397519330325651</v>
+        <v>-0.40340730854564844</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="26">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="2">
@@ -1374,7 +1394,7 @@
         <f t="shared" si="0"/>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="K8" s="7">
@@ -1398,28 +1418,28 @@
         <v>50</v>
       </c>
       <c r="Q8" s="2">
-        <v>295000000</v>
+        <v>486000000</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>50</v>
       </c>
       <c r="S8" s="3">
         <f t="shared" si="3"/>
-        <v>-4.9183528802523302E-2</v>
+        <v>-0.42285831480811598</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" si="2"/>
-        <v>-2.3205864500163487E-2</v>
+        <v>-0.40708997948055192</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="26">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="2">
@@ -1441,7 +1461,7 @@
         <f t="shared" si="0"/>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>43</v>
       </c>
       <c r="K9">
@@ -1465,28 +1485,28 @@
         <v>50</v>
       </c>
       <c r="Q9" s="2">
-        <v>214000000</v>
+        <v>356000000</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>50</v>
       </c>
       <c r="S9" s="3">
         <f t="shared" si="3"/>
-        <v>0.31070494861334441</v>
+        <v>-0.21210432864254036</v>
       </c>
       <c r="T9" s="3">
         <f t="shared" si="2"/>
-        <v>0.34651528024510192</v>
+        <v>-0.19057789333580977</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="26">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="2">
@@ -1508,11 +1528,11 @@
         <f t="shared" si="0"/>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="21" t="s">
         <v>53</v>
       </c>
       <c r="K10">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L10">
         <v>1.2999999999999999E-2</v>
@@ -1522,37 +1542,37 @@
         <v>-7.4999999999999997E-3</v>
       </c>
       <c r="N10" s="3">
-        <v>2.0499999999999998</v>
+        <v>1.86</v>
       </c>
       <c r="O10">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>50</v>
       </c>
       <c r="Q10" s="2">
-        <v>393000000</v>
+        <v>716000000</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>50</v>
       </c>
       <c r="S10" s="3">
         <f t="shared" si="3"/>
-        <v>-0.28628280151843366</v>
+        <v>-0.60825299021891666</v>
       </c>
       <c r="T10" s="3">
         <f t="shared" si="2"/>
-        <v>-0.26678302805991927</v>
+        <v>-0.59754990227311211</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="26">
         <v>8</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="2">
@@ -1561,64 +1581,130 @@
       <c r="E11" s="2">
         <v>523000000</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="23">
         <v>2E-3</v>
       </c>
-      <c r="G11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H11">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I11">
-        <f>-(F11+H11)/2</f>
+      <c r="G11" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H11" s="23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I11" s="23">
+        <f t="shared" ref="I11:I13" si="4">-(F11+H11)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L11">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="1"/>
+      <c r="J11" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="L11" s="23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M11" s="23">
+        <f t="shared" ref="M11:M13" si="5">-(F11+L11)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
       <c r="N11" s="3">
-        <v>2.65</v>
-      </c>
-      <c r="O11">
-        <v>113</v>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="O11" s="23">
+        <v>120</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="Q11" s="2">
-        <v>352000000</v>
+        <v>466000000</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="S11" s="3">
-        <f t="shared" si="3"/>
-        <v>-0.203150968740751</v>
+        <f t="shared" ref="S11:S13" si="6" xml:space="preserve"> D11/( MAX(P11:R11)*1.1*1.2*1.1*1.1 ) - 1</f>
+        <v>-0.39808828540073893</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" si="2"/>
-        <v>-0.18137991485098937</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13">
+        <f t="shared" ref="T11:T13" si="7" xml:space="preserve"> E11/( MAX(P11:R11)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>-0.38164319748400899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2">
+        <v>448000000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>523000000</v>
+      </c>
+      <c r="F12" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="G12" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H12" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I12" s="24">
+        <f t="shared" si="4"/>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1.95E-2</v>
+      </c>
+      <c r="M12" s="24">
+        <f t="shared" si="5"/>
+        <v>-1.0749999999999999E-2</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1.98</v>
+      </c>
+      <c r="O12" s="24">
+        <v>154</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>404000000</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S12" s="3">
+        <f t="shared" si="6"/>
+        <v>-0.30571569553649602</v>
+      </c>
+      <c r="T12" s="3">
+        <f t="shared" si="7"/>
+        <v>-0.28674685650383236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="2">
@@ -1627,271 +1713,403 @@
       <c r="E13" s="2">
         <v>523000000</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="24">
         <v>2E-3</v>
       </c>
-      <c r="G13">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H13">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I13">
-        <f>-(F13+H13)/2</f>
+      <c r="G13" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H13" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I13" s="24">
+        <f t="shared" si="4"/>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L13" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M13" s="24">
+        <f t="shared" si="5"/>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1.98</v>
+      </c>
+      <c r="O13" s="24">
+        <v>112</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>578000000</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S13" s="3">
+        <f t="shared" si="6"/>
+        <v>-0.51472169722620131</v>
+      </c>
+      <c r="T13" s="3">
+        <f t="shared" si="7"/>
+        <v>-0.50146320073970285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
+        <v>11</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2">
+        <v>448000000</v>
+      </c>
+      <c r="E14" s="2">
+        <v>523000000</v>
+      </c>
+      <c r="F14">
+        <v>2E-3</v>
+      </c>
+      <c r="G14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H14">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I14">
+        <f>-(F14+H14)/2</f>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L14">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M14">
+        <f>-(F14+L14)/2</f>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>2.65</v>
+      </c>
+      <c r="O14">
+        <v>113</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>412000000</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S14" s="3">
+        <f xml:space="preserve"> D14/( MAX(P14:R14)*1.1*1.2*1.1*1.1 ) - 1</f>
+        <v>-0.31919694416685507</v>
+      </c>
+      <c r="T14" s="3">
+        <f xml:space="preserve"> E14/( MAX(P14:R14)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>-0.30059643210569953</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="2">
+        <v>448000000</v>
+      </c>
+      <c r="E22" s="2">
+        <v>523000000</v>
+      </c>
+      <c r="F22">
+        <v>2E-3</v>
+      </c>
+      <c r="G22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H22">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I22">
+        <f>-(F22+H22)/2</f>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="J22" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="K13">
+      <c r="K22">
         <v>0.01</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L22" s="7">
         <f xml:space="preserve"> 0.013*1.5</f>
         <v>1.95E-2</v>
       </c>
-      <c r="M13">
-        <f>-(F13+L13)/2</f>
+      <c r="M22">
+        <f>-(F22+L22)/2</f>
         <v>-1.0749999999999999E-2</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N22" s="3">
         <v>2.16</v>
       </c>
-      <c r="O13">
+      <c r="O22">
         <v>176</v>
       </c>
-      <c r="P13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="2">
+      <c r="P22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q22" s="2">
         <v>237000000</v>
       </c>
-      <c r="R13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S13" s="3">
-        <f xml:space="preserve"> D13/( MAX(P13:R13)*1.1*1.2*1.1*1.1 ) - 1</f>
+      <c r="R22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S22" s="3">
+        <f xml:space="preserve"> D22/( MAX(P22:R22)*1.1*1.2*1.1*1.1 ) - 1</f>
         <v>0.18350573419095206</v>
       </c>
-      <c r="T13" s="3">
-        <f xml:space="preserve"> E13/( MAX(P13:R13)*1.1*1.2*1.1*1.25 ) - 1</f>
+      <c r="T22" s="3">
+        <f xml:space="preserve"> E22/( MAX(P22:R22)*1.1*1.2*1.1*1.25 ) - 1</f>
         <v>0.21584080157152652</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D23" s="2">
         <v>448000000</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E23" s="2">
         <v>523000000</v>
       </c>
-      <c r="F14">
+      <c r="F23">
         <v>2E-3</v>
       </c>
-      <c r="G14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H14">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I14">
-        <f t="shared" ref="I14" si="4">-(F14+H14)/2</f>
+      <c r="G23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ref="I23" si="8">-(F23+H23)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J23" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="K14">
+      <c r="K23">
         <v>0.01</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L23" s="7">
         <f xml:space="preserve"> 0.013*1.4</f>
         <v>1.8199999999999997E-2</v>
       </c>
-      <c r="M14">
-        <f>-(F14+L14)/2</f>
+      <c r="M23">
+        <f>-(F23+L23)/2</f>
         <v>-1.0099999999999998E-2</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N23" s="3">
         <v>2.27</v>
       </c>
-      <c r="O14">
+      <c r="O23">
         <v>177.5</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q14" s="2">
+      <c r="P23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="2">
         <v>223000000</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S14" s="3">
-        <f xml:space="preserve"> D14/( MAX(P14:R14)*1.1*1.2*1.1*1.1 ) - 1</f>
+      <c r="R23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S23" s="3">
+        <f xml:space="preserve"> D23/( MAX(P23:R23)*1.1*1.2*1.1*1.1 ) - 1</f>
         <v>0.25780654261549629</v>
       </c>
-      <c r="T14" s="3">
-        <f xml:space="preserve"> E14/( MAX(P14:R14)*1.1*1.2*1.1*1.25 ) - 1</f>
+      <c r="T23" s="3">
+        <f xml:space="preserve"> E23/( MAX(P23:R23)*1.1*1.2*1.1*1.25 ) - 1</f>
         <v>0.29217161422624116</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>11</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D24" s="2">
         <v>448000000</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E24" s="2">
         <v>523000000</v>
       </c>
-      <c r="F15">
+      <c r="F24">
         <v>2E-3</v>
       </c>
-      <c r="G15">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H15">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I15">
-        <f t="shared" ref="I15" si="5">-(F15+H15)/2</f>
+      <c r="G24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24" si="9">-(F24+H24)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J24" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="K15">
+      <c r="K24">
         <v>0.01</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L24" s="7">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="M15">
-        <f>-(F15+L15)/2</f>
+      <c r="M24">
+        <f>-(F24+L24)/2</f>
         <v>-9.5000000000000015E-3</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N24" s="3">
         <v>2.2400000000000002</v>
       </c>
-      <c r="O15">
+      <c r="O24">
         <v>166.3</v>
       </c>
-      <c r="P15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q15" s="2">
+      <c r="P24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q24" s="2">
         <v>244000000</v>
       </c>
-      <c r="R15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S15" s="3">
-        <f xml:space="preserve"> D15/( MAX(P15:R15)*1.1*1.2*1.1*1.1 ) - 1</f>
+      <c r="R24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S24" s="3">
+        <f xml:space="preserve"> D24/( MAX(P24:R24)*1.1*1.2*1.1*1.1 ) - 1</f>
         <v>0.14955270083301508</v>
       </c>
-      <c r="T15" s="3">
-        <f xml:space="preserve"> E15/( MAX(P15:R15)*1.1*1.2*1.1*1.25 ) - 1</f>
+      <c r="T24" s="3">
+        <f xml:space="preserve"> E24/( MAX(P24:R24)*1.1*1.2*1.1*1.25 ) - 1</f>
         <v>0.18096012283791718</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>12</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D25" s="2">
         <v>448000000</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E25" s="2">
         <v>523000000</v>
       </c>
-      <c r="F16">
+      <c r="F25">
         <v>2E-3</v>
       </c>
-      <c r="G16">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H16">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I16">
-        <f t="shared" ref="I16" si="6">-(F16+H16)/2</f>
+      <c r="G25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H25">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25" si="10">-(F25+H25)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J25" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="K16">
+      <c r="K25">
         <v>0.01</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L25" s="7">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="M16">
-        <f>-(F16+L16)/2</f>
+      <c r="M25">
+        <f>-(F25+L25)/2</f>
         <v>-9.5000000000000015E-3</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N25" s="3">
         <v>2.12</v>
       </c>
-      <c r="O16">
+      <c r="O25">
         <v>154.69999999999999</v>
       </c>
-      <c r="P16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q16" s="2">
+      <c r="P25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q25" s="2">
         <v>282000000</v>
       </c>
-      <c r="R16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S16" s="3">
-        <f xml:space="preserve"> D16/( MAX(P16:R16)*1.1*1.2*1.1*1.1 ) - 1</f>
+      <c r="R25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S25" s="3">
+        <f xml:space="preserve"> D25/( MAX(P25:R25)*1.1*1.2*1.1*1.1 ) - 1</f>
         <v>-5.3515638182424219E-3</v>
       </c>
-      <c r="T16" s="3">
-        <f xml:space="preserve"> E16/( MAX(P16:R16)*1.1*1.2*1.1*1.25 ) - 1</f>
+      <c r="T25" s="3">
+        <f xml:space="preserve"> E25/( MAX(P25:R25)*1.1*1.2*1.1*1.25 ) - 1</f>
         <v>2.1823652384580727E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Practica_2/BA/BA_Estudio/Estudio_Parametrico/BA_Estudio_Parametros.xlsx
+++ b/Practica_2/BA/BA_Estudio/Estudio_Parametrico/BA_Estudio_Parametros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\EUE\Practica_2\BA\BA_Estudio\Estudio_Parametrico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4569E37-6D39-45FB-AF51-C145BA8D42F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4F1F13-C58D-4811-96B3-235C93936AAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C4F7E80-8C79-4120-8B9D-E7CA74F5DB21}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
   <si>
     <t>2D_Shell</t>
   </si>
@@ -197,9 +197,6 @@
   </si>
   <si>
     <t>I  [t = 2 mm]</t>
-  </si>
-  <si>
-    <t>I  [t = 2,5 mm]</t>
   </si>
   <si>
     <t>I  [t = 3 mm]</t>
@@ -471,7 +468,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -537,6 +534,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -895,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37681EE4-180F-4F65-911D-27C4AC2AD661}">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,34 +913,34 @@
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="36" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="34" t="s">
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
       <c r="U1" t="s">
         <v>8</v>
       </c>
@@ -1565,12 +1563,12 @@
         <v>-0.59754990227311211</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>39</v>
@@ -1581,536 +1579,276 @@
       <c r="E11" s="2">
         <v>523000000</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11">
         <v>2E-3</v>
       </c>
-      <c r="G11" s="23">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H11" s="23">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I11" s="23">
-        <f t="shared" ref="I11:I13" si="4">-(F11+H11)/2</f>
+      <c r="G11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H11">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I11">
+        <f>-(F11+H11)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="J11" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="L11" s="23">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="M11" s="23">
-        <f t="shared" ref="M11:M13" si="5">-(F11+L11)/2</f>
+      <c r="J11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L11">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M11">
+        <f>-(F11+L11)/2</f>
         <v>-7.4999999999999997E-3</v>
       </c>
       <c r="N11" s="3">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="O11" s="23">
-        <v>120</v>
+        <v>2.65</v>
+      </c>
+      <c r="O11">
+        <v>113</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="Q11" s="2">
-        <v>466000000</v>
+        <v>412000000</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="S11" s="3">
-        <f t="shared" ref="S11:S13" si="6" xml:space="preserve"> D11/( MAX(P11:R11)*1.1*1.2*1.1*1.1 ) - 1</f>
+        <f xml:space="preserve"> D11/( MAX(P11:R11)*1.1*1.2*1.1*1.1 ) - 1</f>
+        <v>-0.31919694416685507</v>
+      </c>
+      <c r="T11" s="3">
+        <f xml:space="preserve"> E11/( MAX(P11:R11)*1.1*1.2*1.1*1.25 ) - 1</f>
+        <v>-0.30059643210569953</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
+        <v>8</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2">
+        <v>448000000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>523000000</v>
+      </c>
+      <c r="F15" s="23">
+        <v>2E-3</v>
+      </c>
+      <c r="G15" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H15" s="23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I15" s="23">
+        <f t="shared" ref="I15:I17" si="4">-(F15+H15)/2</f>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="L15" s="23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M15" s="23">
+        <f t="shared" ref="M15:M17" si="5">-(F15+L15)/2</f>
+        <v>-7.4999999999999997E-3</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="O15" s="23">
+        <v>120</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>466000000</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" ref="S15:S17" si="6" xml:space="preserve"> D15/( MAX(P15:R15)*1.1*1.2*1.1*1.1 ) - 1</f>
         <v>-0.39808828540073893</v>
       </c>
-      <c r="T11" s="3">
-        <f t="shared" ref="T11:T13" si="7" xml:space="preserve"> E11/( MAX(P11:R11)*1.1*1.2*1.1*1.25 ) - 1</f>
+      <c r="T15" s="3">
+        <f t="shared" ref="T15:T17" si="7" xml:space="preserve"> E15/( MAX(P15:R15)*1.1*1.2*1.1*1.25 ) - 1</f>
         <v>-0.38164319748400899</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+    <row r="16" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D16" s="2">
         <v>448000000</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E16" s="2">
         <v>523000000</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F16" s="24">
         <v>2E-3</v>
       </c>
-      <c r="G12" s="24">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H12" s="24">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="G16" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H16" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I16" s="24">
         <f t="shared" si="4"/>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J16" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="24">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L12" s="7">
+      <c r="K16" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L16" s="7">
         <v>1.95E-2</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M16" s="24">
         <f t="shared" si="5"/>
         <v>-1.0749999999999999E-2</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N16" s="3">
         <v>1.98</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O16" s="24">
         <v>154</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q16" s="2">
         <v>404000000</v>
       </c>
-      <c r="R12" s="4" t="s">
+      <c r="R16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S16" s="3">
         <f t="shared" si="6"/>
         <v>-0.30571569553649602</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T16" s="3">
         <f t="shared" si="7"/>
         <v>-0.28674685650383236</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+    <row r="17" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
         <v>10</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D17" s="2">
         <v>448000000</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E17" s="2">
         <v>523000000</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F17" s="24">
         <v>2E-3</v>
       </c>
-      <c r="G13" s="24">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H13" s="24">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I13" s="24">
+      <c r="G17" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H17" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I17" s="24">
         <f t="shared" si="4"/>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="J13" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="24">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L13" s="24">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="M13" s="24">
+      <c r="J17" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L17" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M17" s="24">
         <f t="shared" si="5"/>
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N17" s="3">
         <v>1.98</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O17" s="24">
         <v>112</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q17" s="2">
         <v>578000000</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="R17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S17" s="3">
         <f t="shared" si="6"/>
         <v>-0.51472169722620131</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T17" s="3">
         <f t="shared" si="7"/>
         <v>-0.50146320073970285</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
-        <v>11</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="2">
-        <v>448000000</v>
-      </c>
-      <c r="E14" s="2">
-        <v>523000000</v>
-      </c>
-      <c r="F14">
-        <v>2E-3</v>
-      </c>
-      <c r="G14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H14">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I14">
-        <f>-(F14+H14)/2</f>
-        <v>-7.4999999999999997E-3</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L14">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="M14">
-        <f>-(F14+L14)/2</f>
-        <v>-7.4999999999999997E-3</v>
-      </c>
-      <c r="N14" s="3">
-        <v>2.65</v>
-      </c>
-      <c r="O14">
-        <v>113</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>412000000</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S14" s="3">
-        <f xml:space="preserve"> D14/( MAX(P14:R14)*1.1*1.2*1.1*1.1 ) - 1</f>
-        <v>-0.31919694416685507</v>
-      </c>
-      <c r="T14" s="3">
-        <f xml:space="preserve"> E14/( MAX(P14:R14)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>-0.30059643210569953</v>
-      </c>
-    </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>9</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="2">
-        <v>448000000</v>
-      </c>
-      <c r="E22" s="2">
-        <v>523000000</v>
-      </c>
-      <c r="F22">
-        <v>2E-3</v>
-      </c>
-      <c r="G22">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H22">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I22">
-        <f>-(F22+H22)/2</f>
-        <v>-7.4999999999999997E-3</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="K22">
-        <v>0.01</v>
-      </c>
-      <c r="L22" s="7">
-        <f xml:space="preserve"> 0.013*1.5</f>
-        <v>1.95E-2</v>
-      </c>
-      <c r="M22">
-        <f>-(F22+L22)/2</f>
-        <v>-1.0749999999999999E-2</v>
-      </c>
-      <c r="N22" s="3">
-        <v>2.16</v>
-      </c>
-      <c r="O22">
-        <v>176</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>237000000</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S22" s="3">
-        <f xml:space="preserve"> D22/( MAX(P22:R22)*1.1*1.2*1.1*1.1 ) - 1</f>
-        <v>0.18350573419095206</v>
-      </c>
-      <c r="T22" s="3">
-        <f xml:space="preserve"> E22/( MAX(P22:R22)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>0.21584080157152652</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>10</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="2">
-        <v>448000000</v>
-      </c>
-      <c r="E23" s="2">
-        <v>523000000</v>
-      </c>
-      <c r="F23">
-        <v>2E-3</v>
-      </c>
-      <c r="G23">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H23">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I23">
-        <f t="shared" ref="I23" si="8">-(F23+H23)/2</f>
-        <v>-7.4999999999999997E-3</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="K23">
-        <v>0.01</v>
-      </c>
-      <c r="L23" s="7">
-        <f xml:space="preserve"> 0.013*1.4</f>
-        <v>1.8199999999999997E-2</v>
-      </c>
-      <c r="M23">
-        <f>-(F23+L23)/2</f>
-        <v>-1.0099999999999998E-2</v>
-      </c>
-      <c r="N23" s="3">
-        <v>2.27</v>
-      </c>
-      <c r="O23">
-        <v>177.5</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>223000000</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S23" s="3">
-        <f xml:space="preserve"> D23/( MAX(P23:R23)*1.1*1.2*1.1*1.1 ) - 1</f>
-        <v>0.25780654261549629</v>
-      </c>
-      <c r="T23" s="3">
-        <f xml:space="preserve"> E23/( MAX(P23:R23)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>0.29217161422624116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>11</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="2">
-        <v>448000000</v>
-      </c>
-      <c r="E24" s="2">
-        <v>523000000</v>
-      </c>
-      <c r="F24">
-        <v>2E-3</v>
-      </c>
-      <c r="G24">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H24">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I24">
-        <f t="shared" ref="I24" si="9">-(F24+H24)/2</f>
-        <v>-7.4999999999999997E-3</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24">
-        <v>0.01</v>
-      </c>
-      <c r="L24" s="7">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="M24">
-        <f>-(F24+L24)/2</f>
-        <v>-9.5000000000000015E-3</v>
-      </c>
-      <c r="N24" s="3">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="O24">
-        <v>166.3</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>244000000</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S24" s="3">
-        <f xml:space="preserve"> D24/( MAX(P24:R24)*1.1*1.2*1.1*1.1 ) - 1</f>
-        <v>0.14955270083301508</v>
-      </c>
-      <c r="T24" s="3">
-        <f xml:space="preserve"> E24/( MAX(P24:R24)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>0.18096012283791718</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>12</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="2">
-        <v>448000000</v>
-      </c>
-      <c r="E25" s="2">
-        <v>523000000</v>
-      </c>
-      <c r="F25">
-        <v>2E-3</v>
-      </c>
-      <c r="G25">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H25">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I25">
-        <f t="shared" ref="I25" si="10">-(F25+H25)/2</f>
-        <v>-7.4999999999999997E-3</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25">
-        <v>0.01</v>
-      </c>
-      <c r="L25" s="7">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="M25">
-        <f>-(F25+L25)/2</f>
-        <v>-9.5000000000000015E-3</v>
-      </c>
-      <c r="N25" s="3">
-        <v>2.12</v>
-      </c>
-      <c r="O25">
-        <v>154.69999999999999</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>282000000</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="S25" s="3">
-        <f xml:space="preserve"> D25/( MAX(P25:R25)*1.1*1.2*1.1*1.1 ) - 1</f>
-        <v>-5.3515638182424219E-3</v>
-      </c>
-      <c r="T25" s="3">
-        <f xml:space="preserve"> E25/( MAX(P25:R25)*1.1*1.2*1.1*1.25 ) - 1</f>
-        <v>2.1823652384580727E-2</v>
-      </c>
-    </row>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+    </row>
+    <row r="22" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="E20:F20"/>
